--- a/Retailers Ledger/CHANDA.xlsx
+++ b/Retailers Ledger/CHANDA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
   <si>
     <t>SHASHI PAY PHONE-(661176231)</t>
   </si>
@@ -90,10 +90,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -110,8 +110,130 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,133 +248,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -281,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,20 +475,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +555,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,15 +577,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,134 +595,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +740,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1080,21 +1086,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.8571428571429" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14" style="7" customWidth="1"/>
-    <col min="7" max="16382" width="9.14285714285714" style="7"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="8"/>
+    <col min="1" max="1" width="17" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" customWidth="1"/>
+    <col min="7" max="16382" width="9.14285714285714" style="9"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="4" t="s">
@@ -1172,76 +1178,76 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:5">
+    <row r="7" s="9" customFormat="1" spans="1:5">
       <c r="A7" s="5">
         <v>44171</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>5200</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="9">
         <v>15000</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:5">
+    <row r="8" s="9" customFormat="1" spans="1:5">
       <c r="A8" s="5">
         <v>44171</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>15000</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:5">
+    <row r="9" s="9" customFormat="1" spans="1:5">
       <c r="A9" s="5">
         <v>44174</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>5200</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="9">
         <v>5000</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:5">
+    <row r="10" s="9" customFormat="1" spans="1:5">
       <c r="A10" s="5">
         <v>44175</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>5000</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1"/>
-    <row r="12" s="7" customFormat="1"/>
-    <row r="13" s="8" customFormat="1"/>
-    <row r="14" s="8" customFormat="1"/>
-    <row r="15" s="8" customFormat="1"/>
-    <row r="16" s="8" customFormat="1"/>
-    <row r="17" s="8" customFormat="1"/>
-    <row r="18" s="8" customFormat="1"/>
-    <row r="19" s="8" customFormat="1"/>
-    <row r="20" s="8" customFormat="1"/>
-    <row r="21" s="8" customFormat="1"/>
-    <row r="22" s="7" customFormat="1"/>
-    <row r="23" s="7" customFormat="1"/>
-    <row r="24" s="7" customFormat="1"/>
+    <row r="11" s="9" customFormat="1"/>
+    <row r="12" s="9" customFormat="1"/>
+    <row r="13" s="10" customFormat="1"/>
+    <row r="14" s="10" customFormat="1"/>
+    <row r="15" s="10" customFormat="1"/>
+    <row r="16" s="10" customFormat="1"/>
+    <row r="17" s="10" customFormat="1"/>
+    <row r="18" s="10" customFormat="1"/>
+    <row r="19" s="10" customFormat="1"/>
+    <row r="20" s="10" customFormat="1"/>
+    <row r="21" s="10" customFormat="1"/>
+    <row r="22" s="9" customFormat="1"/>
+    <row r="23" s="9" customFormat="1"/>
+    <row r="24" s="9" customFormat="1"/>
     <row r="25" customFormat="1"/>
     <row r="26" customFormat="1"/>
     <row r="27" customFormat="1"/>
@@ -1254,40 +1260,40 @@
     <row r="34" customFormat="1"/>
     <row r="35" customFormat="1"/>
     <row r="36" customFormat="1"/>
-    <row r="37" s="7" customFormat="1"/>
-    <row r="38" s="7" customFormat="1"/>
-    <row r="39" s="7" customFormat="1"/>
+    <row r="37" s="9" customFormat="1"/>
+    <row r="38" s="9" customFormat="1"/>
+    <row r="39" s="9" customFormat="1"/>
     <row r="40" customFormat="1"/>
     <row r="41" customFormat="1"/>
     <row r="42" customFormat="1"/>
     <row r="43" customFormat="1"/>
     <row r="44" customFormat="1"/>
-    <row r="45" s="7" customFormat="1" spans="1:1">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="1:1">
-      <c r="A46" s="9"/>
-    </row>
-    <row r="47" s="7" customFormat="1"/>
+    <row r="45" s="9" customFormat="1" spans="1:1">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" s="9" customFormat="1" spans="1:1">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" s="9" customFormat="1"/>
     <row r="48" customFormat="1"/>
     <row r="49" customFormat="1"/>
     <row r="50" customFormat="1"/>
     <row r="51" customFormat="1"/>
-    <row r="52" s="7" customFormat="1" spans="1:1">
-      <c r="A52" s="9"/>
-    </row>
-    <row r="53" s="7" customFormat="1"/>
-    <row r="54" s="7" customFormat="1"/>
+    <row r="52" s="9" customFormat="1" spans="1:1">
+      <c r="A52" s="11"/>
+    </row>
+    <row r="53" s="9" customFormat="1"/>
+    <row r="54" s="9" customFormat="1"/>
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1"/>
     <row r="57" customFormat="1"/>
-    <row r="58" s="7" customFormat="1" spans="1:1">
-      <c r="A58" s="9"/>
-    </row>
-    <row r="59" s="7" customFormat="1"/>
-    <row r="60" s="7" customFormat="1"/>
-    <row r="61" s="7" customFormat="1" spans="1:1">
-      <c r="A61" s="9"/>
+    <row r="58" s="9" customFormat="1" spans="1:1">
+      <c r="A58" s="11"/>
+    </row>
+    <row r="59" s="9" customFormat="1"/>
+    <row r="60" s="9" customFormat="1"/>
+    <row r="61" s="9" customFormat="1" spans="1:1">
+      <c r="A61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1319,10 +1325,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1604,8 +1610,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>44176</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2080</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1623,7 +1640,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1637,12 +1654,13 @@
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1707,8 +1725,7 @@
       <c r="A6" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1722,7 +1739,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/Retailers Ledger/CHANDA.xlsx
+++ b/Retailers Ledger/CHANDA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SHASHI PAY PHONE-(661176231)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="21">
   <si>
     <t>SHASHI PAY PHONE-(661176231)</t>
   </si>
@@ -89,9 +89,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -110,34 +110,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,14 +134,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,9 +157,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,6 +216,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -201,54 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,19 +281,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,163 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,21 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,28 +499,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,9 +534,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,15 +577,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,134 +595,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,7 +738,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -756,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,26 +1084,26 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17" style="9" customWidth="1"/>
-    <col min="2" max="2" width="18" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.8571428571429" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14" style="9" customWidth="1"/>
-    <col min="7" max="16382" width="9.14285714285714" style="9"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="10"/>
+    <col min="1" max="1" width="17" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14" style="10" customWidth="1"/>
+    <col min="7" max="16382" width="9.14285714285714" style="10"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="4" t="s">
@@ -1146,7 +1149,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1160,7 +1164,8 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E24" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1174,80 +1179,164 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:5">
+    <row r="7" s="10" customFormat="1" spans="1:5">
       <c r="A7" s="5">
         <v>44171</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>5200</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:5">
+    <row r="8" s="10" customFormat="1" spans="1:5">
       <c r="A8" s="5">
         <v>44171</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>15000</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:5">
+    <row r="9" s="10" customFormat="1" spans="1:5">
       <c r="A9" s="5">
         <v>44174</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>5200</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:5">
+    <row r="10" s="10" customFormat="1" spans="1:5">
       <c r="A10" s="5">
         <v>44175</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>5000</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1"/>
-    <row r="12" s="9" customFormat="1"/>
-    <row r="13" s="10" customFormat="1"/>
-    <row r="14" s="10" customFormat="1"/>
-    <row r="15" s="10" customFormat="1"/>
-    <row r="16" s="10" customFormat="1"/>
-    <row r="17" s="10" customFormat="1"/>
-    <row r="18" s="10" customFormat="1"/>
-    <row r="19" s="10" customFormat="1"/>
-    <row r="20" s="10" customFormat="1"/>
-    <row r="21" s="10" customFormat="1"/>
-    <row r="22" s="9" customFormat="1"/>
-    <row r="23" s="9" customFormat="1"/>
-    <row r="24" s="9" customFormat="1"/>
+    <row r="11" s="10" customFormat="1" spans="1:5">
+      <c r="A11" s="5">
+        <v>44177</v>
+      </c>
+      <c r="B11" s="10">
+        <v>5200</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="1" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" s="11" customFormat="1" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" s="11" customFormat="1" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" s="11" customFormat="1" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" s="11" customFormat="1" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" s="11" customFormat="1" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="1" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="5:5">
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
     <row r="25" customFormat="1"/>
     <row r="26" customFormat="1"/>
     <row r="27" customFormat="1"/>
@@ -1260,40 +1349,40 @@
     <row r="34" customFormat="1"/>
     <row r="35" customFormat="1"/>
     <row r="36" customFormat="1"/>
-    <row r="37" s="9" customFormat="1"/>
-    <row r="38" s="9" customFormat="1"/>
-    <row r="39" s="9" customFormat="1"/>
+    <row r="37" s="10" customFormat="1"/>
+    <row r="38" s="10" customFormat="1"/>
+    <row r="39" s="10" customFormat="1"/>
     <row r="40" customFormat="1"/>
     <row r="41" customFormat="1"/>
     <row r="42" customFormat="1"/>
     <row r="43" customFormat="1"/>
     <row r="44" customFormat="1"/>
-    <row r="45" s="9" customFormat="1" spans="1:1">
-      <c r="A45" s="11"/>
-    </row>
-    <row r="46" s="9" customFormat="1" spans="1:1">
-      <c r="A46" s="11"/>
-    </row>
-    <row r="47" s="9" customFormat="1"/>
+    <row r="45" s="10" customFormat="1" spans="1:1">
+      <c r="A45" s="12"/>
+    </row>
+    <row r="46" s="10" customFormat="1" spans="1:1">
+      <c r="A46" s="12"/>
+    </row>
+    <row r="47" s="10" customFormat="1"/>
     <row r="48" customFormat="1"/>
     <row r="49" customFormat="1"/>
     <row r="50" customFormat="1"/>
     <row r="51" customFormat="1"/>
-    <row r="52" s="9" customFormat="1" spans="1:1">
-      <c r="A52" s="11"/>
-    </row>
-    <row r="53" s="9" customFormat="1"/>
-    <row r="54" s="9" customFormat="1"/>
+    <row r="52" s="10" customFormat="1" spans="1:1">
+      <c r="A52" s="12"/>
+    </row>
+    <row r="53" s="10" customFormat="1"/>
+    <row r="54" s="10" customFormat="1"/>
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1"/>
     <row r="57" customFormat="1"/>
-    <row r="58" s="9" customFormat="1" spans="1:1">
-      <c r="A58" s="11"/>
-    </row>
-    <row r="59" s="9" customFormat="1"/>
-    <row r="60" s="9" customFormat="1"/>
-    <row r="61" s="9" customFormat="1" spans="1:1">
-      <c r="A61" s="11"/>
+    <row r="58" s="10" customFormat="1" spans="1:1">
+      <c r="A58" s="12"/>
+    </row>
+    <row r="59" s="10" customFormat="1"/>
+    <row r="60" s="10" customFormat="1"/>
+    <row r="61" s="10" customFormat="1" spans="1:1">
+      <c r="A61" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1307,10 +1396,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1325,10 +1414,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1371,7 +1460,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1385,7 +1475,8 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>3000</v>
       </c>
     </row>
@@ -1399,7 +1490,8 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
@@ -1413,7 +1505,8 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
@@ -1427,7 +1520,8 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
     </row>
@@ -1441,7 +1535,8 @@
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1455,7 +1550,8 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1469,7 +1565,8 @@
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1483,7 +1580,8 @@
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1497,7 +1595,8 @@
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1511,8 +1610,63 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1527,13 +1681,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -1592,7 +1746,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -1606,7 +1761,8 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1620,8 +1776,111 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1637,13 +1896,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1655,12 +1914,12 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1703,7 +1962,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1717,12 +1977,119 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:1">
+    <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="5"/>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1736,13 +2103,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1801,7 +2168,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>3000</v>
       </c>
     </row>
@@ -1815,7 +2183,8 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1829,8 +2198,111 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>-2000</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1846,13 +2318,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -1912,7 +2384,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -1926,8 +2399,135 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>44176</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>44177</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2080</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
